--- a/2021/data_2021_2_cleaned.xlsx
+++ b/2021/data_2021_2_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Desktop\önkutfel\cleaned\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolle\OneDrive\Dokumentumok\GitHub\-nkutfel\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E426F20-BA62-489A-9D0D-5C1ABA051ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11C14B6-D029-49E2-8001-A7A7872F043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2481,13 +2481,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
